--- a/List_congreso.xlsx
+++ b/List_congreso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAMONTOY\Desktop\proyectos_idic\DASHBOARD-CONGRESOS-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAMONTOY\Desktop\Dashboard_Congresos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CDB944-67EA-4ADA-B722-AAC98437535B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C73DCBA-7F3C-4BD7-9F36-EA4A66AB7053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="183">
   <si>
     <t>Evento</t>
   </si>
@@ -123,36 +123,12 @@
     <t>ticec.cedia.edu.ec</t>
   </si>
   <si>
-    <t>CISTI</t>
-  </si>
-  <si>
-    <t>21st Iberian Conference on Information Systems and Technologies</t>
-  </si>
-  <si>
-    <t>17/06/2026</t>
-  </si>
-  <si>
-    <t>20/06/2026</t>
-  </si>
-  <si>
     <t>24/02/2026</t>
   </si>
   <si>
-    <t>University of Santiago de Compostela</t>
-  </si>
-  <si>
-    <t>Santiago de Compostela</t>
-  </si>
-  <si>
     <t>España</t>
   </si>
   <si>
-    <t>Springer LNNS / ITMA (Scopus, WoS)</t>
-  </si>
-  <si>
-    <t>cisti.eu</t>
-  </si>
-  <si>
     <t>WorldCIST</t>
   </si>
   <si>
@@ -268,9 +244,6 @@
   </si>
   <si>
     <t>Inteligencia Artificial Aplicada; Datos Abiertos; MLOps; Reproducibilidad de Modelos; Políticas y Gobierno Basado en Datos; Ética en IA; Seguridad y Robustez de Modelos; Ensayos Clínicos Digitales; Interoperabilidad Clínica; Seguridad del Paciente; Bioseñales e Imagenología; Biomateriales; Prototipado Biomédico; Medicina de Precisión; Modelación Ambiental; Sostenibilidad Ambiental; Teledetección; Gestión de Cuencas; Adaptación Climática; Ciudades Resilientes; Redes Eléctricas Inteligentes; Generación Distribuida; Energías Renovables; Agricultura de Precisión; Bioprocesos; Genética Aplicada; Nuevos Materiales; Pruebas de Materiales; Gemelos Digitales; Control de Procesos; Mantenimiento Predictivo; Manufactura Avanzada; Identidad Digital; Confianza Digital; Protección de Datos; Cumplimiento Normativo; Ciberseguridad; Ciberseguridad en IA e Infraestructuras Críticas; Tecnología Educativa (EdTech); Evaluación del Aprendizaje; Inclusión Digital; Accesibilidad Digital; Gobierno Digital; Sociedad Digital</t>
-  </si>
-  <si>
-    <t>Sistemas de Información; Tecnologías de la Información; Metodologías de Desarrollo de Sistemas; Sistemas y Tecnologías Multimedia; Gestión del Conocimiento; Sistemas de Apoyo a la Decisión; Inteligencia de Negocios; Big Data; Almacenes de Datos; Minería de Datos; Inteligencia Artificial; Aprendizaje Automático; Redes Neuronales; Sistemas Expertos; Procesamiento de Lenguaje Natural; Visión por Computador; Procesamiento de Imágenes; Reconocimiento de Patrones; Sistemas Multiagente; Internet de las Cosas (IoT); Computación en la Nube; Computación en el Borde; Sistemas Distribuidos; Redes de Computadores; Seguridad en Redes; Ciberseguridad; Criptografía; Blockchain; Educación Digital; Tecnologías Educativas; Interacción Humano-Computador; Realidad Virtual; Realidad Aumentada; Sistemas Empresariales; ERP; Gestión de Procesos de Negocio; Transformación Digital; Gobierno Electrónico; Comercio Electrónico; Negocios Digitales; Computación Móvil; Ingeniería de Software; Ingeniería de Requisitos; Calidad de Software; Pruebas y Validación; Gestión de Proyectos TI; Bases de Datos; Recuperación de Información; Sistemas de Información Geográfica (SIG); Sistemas de Información en Salud; Bioinformática; Robótica; Automatización; Sistemas Embebidos; Ciudades Inteligentes; Redes Eléctricas Inteligentes; Sostenibilidad en TIC; Ética en TIC</t>
   </si>
   <si>
     <t>Gestión de la Información y del Conocimiento; Modelos Organizacionales y Sistemas de Información; Modelado de Software y Sistemas; Arquitecturas, Aplicaciones y Herramientas de Software; Sistemas y Aplicaciones Multimedia; Redes de Computadores, Movilidad y Sistemas Pervasivos; Sistemas Inteligentes y de Apoyo a la Decisión; Analítica de Big Data y Aplicaciones; Interacción Humano–Computador; Ética, Computación y Seguridad; Informática en Salud; Tecnologías de la Información en Educación; Tecnologías para Aplicaciones Biomédicas; Tecnologías de la Información en Radiocomunicaciones</t>
@@ -1325,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1393,13 +1366,13 @@
         <v>12</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="22" customFormat="1" ht="109.5" customHeight="1">
@@ -1410,7 +1383,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D2" s="27">
         <v>2026</v>
@@ -1437,19 +1410,19 @@
         <v>21</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="M2" s="51" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="N2" s="49" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="O2" s="49" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="P2" s="49" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="22" customFormat="1" ht="94.5" customHeight="1">
@@ -1460,7 +1433,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D3" s="27">
         <v>2026</v>
@@ -1487,272 +1460,272 @@
         <v>30</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="M3" s="27" t="s">
         <v>31</v>
       </c>
       <c r="N3" s="50" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="O3" s="50" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="P3" s="50" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="22" customFormat="1" ht="108" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="22" customFormat="1" ht="120" customHeight="1">
       <c r="A4" s="27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D4" s="27">
         <v>2026</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4" s="27" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="O4" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="P4" s="49" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="22" customFormat="1" ht="120" customHeight="1">
-      <c r="A5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="N4" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="O4" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="P4" s="50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="22" customFormat="1" ht="127.5" customHeight="1">
+      <c r="A5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="27">
+      <c r="B5" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="29">
         <v>2026</v>
       </c>
-      <c r="E5" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="52" t="s">
+      <c r="E5" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="F5" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="G5" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="H5" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="I5" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="J5" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="O5" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="M5" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="O5" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="P5" s="50" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="22" customFormat="1" ht="127.5" customHeight="1">
+      <c r="P5" s="49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="22" customFormat="1" ht="120" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D6" s="29">
         <v>2026</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="O6" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="P6" s="49" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="22" customFormat="1" ht="120" customHeight="1">
+        <v>61</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="O6" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="22" customFormat="1" ht="114" customHeight="1">
       <c r="A7" s="29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D7" s="29">
         <v>2026</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K7" s="29" t="s">
         <v>30</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="N7" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="O7" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="P7" s="50" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="22" customFormat="1" ht="114" customHeight="1">
-      <c r="A8" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="29" t="s">
+      <c r="N7" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="O7" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="22" customFormat="1" ht="132" customHeight="1">
+      <c r="A8" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="32">
+        <v>2026</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="29">
-        <v>2026</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" s="49" t="s">
+      <c r="N8" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="O8" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="O8" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="P8" s="49" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="22" customFormat="1" ht="132" customHeight="1">
+      <c r="P8" s="50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="26" customFormat="1" ht="105.75" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
         <v>86</v>
       </c>
@@ -1772,428 +1745,393 @@
         <v>90</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="K9" s="34" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="N9" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="O9" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="P9" s="50" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="26" customFormat="1" ht="105.75" customHeight="1" thickBot="1">
+        <v>96</v>
+      </c>
+      <c r="N9" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="O9" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="P9" s="49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="95.25" customHeight="1">
       <c r="A10" s="31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D10" s="32">
         <v>2026</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="G10" s="36">
+        <v>46026</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L10" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="M10" s="35" t="s">
+      <c r="N10" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" s="50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="108" customHeight="1">
+      <c r="A11" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="N10" s="49" t="s">
+      <c r="B11" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="40">
+        <v>2026</v>
+      </c>
+      <c r="E11" s="55">
+        <v>46331</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="41">
+        <v>46175</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="N11" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="P11" s="49" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="156" customHeight="1">
+      <c r="A12" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="44">
+        <v>2026</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="45">
+        <v>46240</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="N12" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="O12" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="P12" s="50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="159.75" customHeight="1">
+      <c r="A13" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="O10" s="49" t="s">
+      <c r="B13" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="P10" s="49" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="95.25" customHeight="1">
-      <c r="A11" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="32">
-        <v>2026</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="36">
-        <v>46026</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="N11" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="O11" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="P11" s="50" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="108" customHeight="1">
-      <c r="A12" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="40">
-        <v>2026</v>
-      </c>
-      <c r="E12" s="55">
-        <v>46331</v>
-      </c>
-      <c r="F12" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" s="41">
-        <v>46175</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="J12" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="K12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="M12" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="N12" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="O12" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="P12" s="49" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="156" customHeight="1">
-      <c r="A13" s="43" t="s">
+      <c r="C13" s="44" t="s">
         <v>133</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>135</v>
       </c>
       <c r="D13" s="44">
         <v>2026</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="45">
+        <v>46210</v>
+      </c>
+      <c r="F13" s="45">
+        <v>46272</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="J13" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="G13" s="45">
-        <v>46240</v>
-      </c>
-      <c r="H13" s="46" t="s">
+      <c r="M13" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="N13" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="O13" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="P13" s="49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="135.75" customHeight="1">
+      <c r="A14" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="B14" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="J13" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="M13" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="N13" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="O13" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="P13" s="50" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="159.75" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="C14" s="44" t="s">
         <v>140</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>142</v>
       </c>
       <c r="D14" s="44">
         <v>2026</v>
       </c>
-      <c r="E14" s="45">
-        <v>46210</v>
+      <c r="E14" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="F14" s="45">
-        <v>46272</v>
-      </c>
-      <c r="G14" s="45" t="s">
+        <v>46063</v>
+      </c>
+      <c r="G14" s="45">
+        <v>46030</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="J14" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="N14" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="O14" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="P14" s="50" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="150.75" customHeight="1">
+      <c r="A15" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="B15" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="J14" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="46" t="s">
+      <c r="C15" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="M14" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="N14" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="O14" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="P14" s="49" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="135.75" customHeight="1">
-      <c r="A15" s="43" t="s">
+      <c r="D15" s="46">
+        <v>2026</v>
+      </c>
+      <c r="E15" s="47">
+        <v>46092</v>
+      </c>
+      <c r="F15" s="47">
+        <v>46153</v>
+      </c>
+      <c r="G15" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="H15" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="I15" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="44">
-        <v>2026</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="45">
-        <v>46063</v>
-      </c>
-      <c r="G15" s="45">
-        <v>46030</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="I15" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="J15" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="M15" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="N15" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="O15" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="P15" s="50" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="150.75" customHeight="1">
-      <c r="A16" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="46">
-        <v>2026</v>
-      </c>
-      <c r="E16" s="47">
-        <v>46092</v>
-      </c>
-      <c r="F16" s="47">
-        <v>46153</v>
-      </c>
-      <c r="G16" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="J16" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="M16" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="N16" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="O16" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="P16" s="49" t="s">
-        <v>186</v>
-      </c>
+      <c r="N15" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="P15" s="49" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="21"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="5"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="7"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="11"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="3"/>
       <c r="G19" s="9"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="9"/>
       <c r="M19" s="12"/>
     </row>
@@ -2202,13 +2140,13 @@
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="9"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="6"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="9"/>
       <c r="M20" s="12"/>
     </row>
@@ -2217,13 +2155,13 @@
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="9"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="12"/>
     </row>
@@ -2233,12 +2171,12 @@
       <c r="C22" s="10"/>
       <c r="D22" s="14"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="9"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="9"/>
+      <c r="K22" s="6"/>
       <c r="L22" s="9"/>
       <c r="M22" s="12"/>
     </row>
@@ -2248,8 +2186,8 @@
       <c r="C23" s="10"/>
       <c r="D23" s="14"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -2277,40 +2215,25 @@
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="9"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="6"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="12"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M16" r:id="rId1" xr:uid="{E1FF1926-C15A-4601-B89D-C826B7B356EA}"/>
-    <hyperlink ref="M14" r:id="rId2" xr:uid="{4060E17D-9BE4-4D64-A34C-F11CB38448D5}"/>
-    <hyperlink ref="M13" r:id="rId3" xr:uid="{13015FAD-5A17-40CA-9630-95036D71EC98}"/>
+    <hyperlink ref="M15" r:id="rId1" xr:uid="{E1FF1926-C15A-4601-B89D-C826B7B356EA}"/>
+    <hyperlink ref="M13" r:id="rId2" xr:uid="{4060E17D-9BE4-4D64-A34C-F11CB38448D5}"/>
+    <hyperlink ref="M12" r:id="rId3" xr:uid="{13015FAD-5A17-40CA-9630-95036D71EC98}"/>
     <hyperlink ref="M2" r:id="rId4" xr:uid="{86C33AA6-1BCA-4EBD-AE16-1E334853151C}"/>
-    <hyperlink ref="M8" r:id="rId5" xr:uid="{06623794-D020-4210-BCAB-2BD794C7F610}"/>
-    <hyperlink ref="M12" r:id="rId6" xr:uid="{B2E08471-6962-4FD8-946E-E2E8077F1F7E}"/>
-    <hyperlink ref="M15" r:id="rId7" xr:uid="{FB622373-A959-470D-850F-9A6747F8B866}"/>
+    <hyperlink ref="M7" r:id="rId5" xr:uid="{06623794-D020-4210-BCAB-2BD794C7F610}"/>
+    <hyperlink ref="M11" r:id="rId6" xr:uid="{B2E08471-6962-4FD8-946E-E2E8077F1F7E}"/>
+    <hyperlink ref="M14" r:id="rId7" xr:uid="{FB622373-A959-470D-850F-9A6747F8B866}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>

--- a/List_congreso.xlsx
+++ b/List_congreso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAMONTOY\Desktop\Dashboard_Congresos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAMONTOY\Desktop\proyectos_idic\Dashboard_Congresos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C73DCBA-7F3C-4BD7-9F36-EA4A66AB7053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F8B9D6-532A-495C-B887-B36241E6714A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,11 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="202">
   <si>
     <t>Evento</t>
   </si>
@@ -156,9 +151,6 @@
     <t>worldcist.org</t>
   </si>
   <si>
-    <t>BICA 2026</t>
-  </si>
-  <si>
     <t>17th Annual International Conference on Biologically Inspired Cognitive Architectures</t>
   </si>
   <si>
@@ -183,9 +175,6 @@
     <t>bicaai.org</t>
   </si>
   <si>
-    <t>IBERAMIA 2026</t>
-  </si>
-  <si>
     <t>19th Ibero-American Conference on Artificial Intelligence</t>
   </si>
   <si>
@@ -211,9 +200,6 @@
   </si>
   <si>
     <t>https://www.iberamia.org/iberamia2026/</t>
-  </si>
-  <si>
-    <t>WS-AI4CCAM 2026</t>
   </si>
   <si>
     <t>World Symposium on Artificial Intelligence for Climate Change Adaptation and Mitigation</t>
@@ -260,9 +246,6 @@
     <t>Industria 5.0 y Manufactura Verde; Inteligencia Artificial para Modelos Climáticos; Inteligencia Artificial Experiencial y Herramientas Digitales para Adaptación Climática; Políticas e Instituciones para la Promoción de la IA; Eficiencia Energética y Optimización de Operaciones con IA; Alianzas Público‑Privadas para el Uso y Transferencia de Tecnología en IA; Evaluación del Impacto de la IA en el Cambio Climático; Monitoreo de Eventos Climáticos Extremos y Gestión del Riesgo con IA; Educación Climática Basada en Datos y Ciencia Ciudadana potenciada por IA; Análisis Asistido por IA de Interacciones Océano‑Atmósfera; Teleconexiones Climáticas Modeladas con IA</t>
   </si>
   <si>
-    <t>IoTBDS 2026</t>
-  </si>
-  <si>
     <t>11th International Conference on Internet of Things and Big Data Systems</t>
   </si>
   <si>
@@ -287,9 +270,6 @@
     <t>iotbds.scitevents.org</t>
   </si>
   <si>
-    <t>HCII 2026 (HCI International)</t>
-  </si>
-  <si>
     <t>28th International Conference on Human-Computer Interaction</t>
   </si>
   <si>
@@ -318,9 +298,6 @@
   </si>
   <si>
     <t>2026.hci.international/hci</t>
-  </si>
-  <si>
-    <t>COMIA 2026</t>
   </si>
   <si>
     <t>XVIII Congreso Mexicano de Inteligencia Artificial</t>
@@ -345,9 +322,6 @@
     <t>comia.com.mx</t>
   </si>
   <si>
-    <t>CIbSE 2026</t>
-  </si>
-  <si>
     <t>XXIX Ibero-American Conference on Software Engineering</t>
   </si>
   <si>
@@ -402,9 +376,6 @@
     <t>Experiencia digital humana; Inteligencia artificial y computación avanzada; Transformación digital</t>
   </si>
   <si>
-    <t>CONESCAPAN 2026</t>
-  </si>
-  <si>
     <t>IEEE Convention of Central America and Panama</t>
   </si>
   <si>
@@ -444,9 +415,6 @@
     <t>Actas indexadas en Scopus</t>
   </si>
   <si>
-    <t>SBGames 2026</t>
-  </si>
-  <si>
     <t>Simpósio Brasileiro de Jogos e Entretenimento Digital</t>
   </si>
   <si>
@@ -577,6 +545,90 @@
   </si>
   <si>
     <t>https://sbgames.org/sbgames2026/</t>
+  </si>
+  <si>
+    <t>ECKM</t>
+  </si>
+  <si>
+    <t>27th European Conference on Knowledge Management (ECKM 2026)</t>
+  </si>
+  <si>
+    <t>Creación de conocimiento; Conocimiento tácito y explícito; Prácticas de compartición del conocimiento; Sistemas de gestión del conocimiento (KMS); Plataformas y herramientas de KM; Inteligencia Artificial aplicada a la gestión del conocimiento; Big Data y analítica de conocimiento; Aprendizaje organizacional; Organizaciones que aprenden; Gestión de la innovación; Comunidades de práctica; Gestión del conocimiento como ventaja competitiva; Desarrollo de estrategias de KM; Gestión del capital intelectual; Gestión del conocimiento en administración pública; Gestión del conocimiento en educación; Gestión del conocimiento en salud; Cultura organizacional y KM; Barreras culturales a la gestión del conocimiento; Liderazgo y KM; Gestión del cambio en iniciativas de KM; Ética en la gestión del conocimiento; Sostenibilidad y KM; Transformación digital y KM; Globalización y KM; Integración de KM con otras disciplinas; Evolución del rol del gestor de conocimiento; IA agentiva y KM; KM para planificación estratégica; Gestión del conocimiento y sucesión en empresas familiares; Impacto de la IA generativa en la gestión del conocimiento; Recuperación del conocimiento organizacional en la era post‑verdad</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>Híbrido</t>
+  </si>
+  <si>
+    <t>https://www.academic-conferences.org/conferences/eckm/</t>
+  </si>
+  <si>
+    <t>ICSBT</t>
+  </si>
+  <si>
+    <t>23 rd ICSBT International Conference on Smart Business Technologies (ICSBT 2026)</t>
+  </si>
+  <si>
+    <t>Transformación digital; Empresas inteligentes; Sistemas empresariales inteligentes; Plataformas IoT para negocios; Arquitecturas cloud-native; Fabricación inteligente; Innovación basada en tecnologías inteligentes; IA para pronósticos; Analítica predictiva; Sistemas de soporte a la decisión; Experiencia del cliente basada en IA; IA explicable; IA responsable; Gobernanza ética de IA; Inteligencia de decisiones; Analítica avanzada para estrategia; Blockchain para negocios; Blockchain para finanzas; Finanzas descentralizadas (DeFi); Monedas digitales de bancos centrales (CBDCs); Smart contracts; Ciberseguridad financiera; Cumplimiento regulatorio digital; Identidad digital; Confianza digital; Tecnologías verdes; Analíticas ESG; Trazabilidad de carbono; Innovación urbana sostenible; Energía inteligente; Modelos sostenibles basados en datos; Optimización; Analítica de operaciones; Cadenas de suministro inteligentes; Benchmarking del desempeño; Tecnologías estratégicas para operaciones; Planificación cuantitativa</t>
+  </si>
+  <si>
+    <t>19/07/2026</t>
+  </si>
+  <si>
+    <t>20/07/2026</t>
+  </si>
+  <si>
+    <t>Vila Galé Porto Hotel</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>https://icsbt.scitevents.org/</t>
+  </si>
+  <si>
+    <t>Gestión del conocimiento; Inteligencia artificial y computación avanzada; Transformación digital</t>
+  </si>
+  <si>
+    <t>Aprendizaje organizacional; Gestión del capital intelectual; Inteligencia de negocios; Internet de las cosas (IoT); Sistemas autónomos y robótica</t>
+  </si>
+  <si>
+    <t>Economía digital; Innovación empresarial; Transformación digital; Ética, gobernanza y responsabilidad social</t>
+  </si>
+  <si>
+    <t>Fintech y servicios financieros; Modelos de negocio digitales; Tecnologías emergentes; Transformación organizacional; Ética y gobernanza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONESCAPAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIbSE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IoTBDS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS-AI4CCAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BICA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBERAMIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBGames </t>
+  </si>
+  <si>
+    <t>HCII</t>
   </si>
 </sst>
 </file>
@@ -586,13 +638,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -618,22 +677,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -688,7 +731,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -870,17 +913,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -889,55 +1028,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -956,66 +1053,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1023,23 +1114,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1300,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1325,717 +1506,717 @@
     <col min="16382" max="16384" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="25" customFormat="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:16" s="14" customFormat="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="11" customFormat="1" ht="109.5" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="16">
+        <v>2026</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="11" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="16">
+        <v>2026</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="P3" s="37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="16">
+        <v>2026</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="P4" s="37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="11" customFormat="1" ht="127.5" customHeight="1">
+      <c r="A5" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2026</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="11" customFormat="1" ht="120" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2026</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="P6" s="37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="11" customFormat="1" ht="114" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2026</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="11" customFormat="1" ht="132" customHeight="1">
+      <c r="A8" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="21">
+        <v>2026</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="P8" s="37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="15" customFormat="1" ht="105.75" customHeight="1" thickBot="1">
+      <c r="A9" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="21">
+        <v>2026</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="P1" s="37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="22" customFormat="1" ht="109.5" customHeight="1">
-      <c r="A2" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="27">
-        <v>2026</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="M2" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="N2" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="O2" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="P2" s="49" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="22" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A3" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="27">
-        <v>2026</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="O3" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="P3" s="50" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="22" customFormat="1" ht="120" customHeight="1">
-      <c r="A4" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="27">
-        <v>2026</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="O4" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="P4" s="50" t="s">
+      <c r="P9" s="36" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="22" customFormat="1" ht="127.5" customHeight="1">
-      <c r="A5" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="29">
-        <v>2026</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="O5" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="P5" s="49" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="22" customFormat="1" ht="120" customHeight="1">
-      <c r="A6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="29">
-        <v>2026</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="O6" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="P6" s="50" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="22" customFormat="1" ht="114" customHeight="1">
-      <c r="A7" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="29">
-        <v>2026</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="M7" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="O7" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="P7" s="49" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="22" customFormat="1" ht="132" customHeight="1">
-      <c r="A8" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="32">
-        <v>2026</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="N8" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="O8" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="P8" s="50" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="26" customFormat="1" ht="105.75" customHeight="1" thickBot="1">
-      <c r="A9" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="32">
-        <v>2026</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="N9" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="O9" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="P9" s="49" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="95.25" customHeight="1">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="21">
+        <v>2026</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="25">
+        <v>46026</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="J10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="32">
-        <v>2026</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="36">
-        <v>46026</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="32" t="s">
+      <c r="N10" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="M10" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="N10" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="O10" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="P10" s="50" t="s">
-        <v>158</v>
+      <c r="O10" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" s="37" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="108" customHeight="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="29">
+        <v>2026</v>
+      </c>
+      <c r="E11" s="42">
+        <v>46331</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="30">
+        <v>46175</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="40">
-        <v>2026</v>
-      </c>
-      <c r="E11" s="55">
-        <v>46331</v>
-      </c>
-      <c r="F11" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="41">
-        <v>46175</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="M11" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="N11" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="O11" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="P11" s="49" t="s">
-        <v>167</v>
+      <c r="M11" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="156" customHeight="1">
-      <c r="A12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="44">
+      <c r="A12" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="33">
         <v>2026</v>
       </c>
-      <c r="E12" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" s="45">
+      <c r="E12" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="34">
         <v>46240</v>
       </c>
-      <c r="H12" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="K12" s="44" t="s">
+      <c r="H12" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="M12" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="N12" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="O12" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="P12" s="50" t="s">
+      <c r="L12" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" s="27" t="s">
         <v>170</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="P12" s="37" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="159.75" customHeight="1">
-      <c r="A13" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="44">
+      <c r="A13" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="33">
         <v>2026</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="34">
         <v>46210</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="34">
         <v>46272</v>
       </c>
-      <c r="G13" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="J13" s="44" t="s">
+      <c r="G13" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="44" t="s">
+      <c r="K13" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="M13" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="N13" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="O13" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="P13" s="49" t="s">
-        <v>173</v>
+      <c r="L13" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="135.75" customHeight="1">
-      <c r="A14" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="44">
+      <c r="A14" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="33">
         <v>2026</v>
       </c>
-      <c r="E14" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" s="45">
+      <c r="E14" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="34">
         <v>46063</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="34">
         <v>46030</v>
       </c>
-      <c r="H14" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="J14" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="44" t="s">
+      <c r="H14" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="M14" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="N14" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="O14" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="P14" s="50" t="s">
-        <v>175</v>
+      <c r="L14" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="N14" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="P14" s="37" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="150.75" customHeight="1">
-      <c r="A15" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="46">
+    <row r="15" spans="1:16" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A15" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="45">
         <v>2026</v>
       </c>
       <c r="E15" s="47">
@@ -2045,185 +2226,255 @@
         <v>46153</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="J15" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="46" t="s">
+      <c r="K15" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="44" t="s">
+      <c r="L15" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="M15" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="N15" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="O15" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="P15" s="49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="56" customFormat="1" ht="87" customHeight="1" thickBot="1">
+      <c r="A16" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="64">
+        <v>2026</v>
+      </c>
+      <c r="E16" s="65">
+        <v>46090</v>
+      </c>
+      <c r="F16" s="65">
+        <v>46121</v>
+      </c>
+      <c r="G16" s="65">
+        <v>46115</v>
+      </c>
+      <c r="H16" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="I16" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="J16" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="K16" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="L16" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="N16" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="O16" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="P16" s="72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="56" customFormat="1" ht="92.25" customHeight="1" thickBot="1">
+      <c r="A17" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="69">
+        <v>2026</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="70">
+        <v>46084</v>
+      </c>
+      <c r="H17" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="I17" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="J17" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="N17" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="M15" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="N15" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="O15" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="P15" s="49" t="s">
-        <v>177</v>
+      <c r="O17" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="P17" s="73" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="21"/>
+    <row r="18" spans="1:16" s="56" customFormat="1" ht="90" customHeight="1">
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="61"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="7"/>
+    <row r="19" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="55"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="12"/>
+    <row r="20" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="9"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="12"/>
+    <row r="21" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="9"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="12"/>
+    <row r="22" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="9"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="12"/>
+    <row r="23" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="9"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="12"/>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="9"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="12"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="12"/>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2234,8 +2485,10 @@
     <hyperlink ref="M7" r:id="rId5" xr:uid="{06623794-D020-4210-BCAB-2BD794C7F610}"/>
     <hyperlink ref="M11" r:id="rId6" xr:uid="{B2E08471-6962-4FD8-946E-E2E8077F1F7E}"/>
     <hyperlink ref="M14" r:id="rId7" xr:uid="{FB622373-A959-470D-850F-9A6747F8B866}"/>
+    <hyperlink ref="M16" r:id="rId8" xr:uid="{44F22C39-4B12-4AEE-9BFF-E1DDB767BC70}"/>
+    <hyperlink ref="M17" r:id="rId9" xr:uid="{25DE7943-6D66-40E8-814F-F9E8E2DD8CC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>